--- a/framework/data/signup.xlsx
+++ b/framework/data/signup.xlsx
@@ -34,7 +34,7 @@
     <t>yoga</t>
   </si>
   <si>
-    <t>y1234567</t>
+    <t>y123456</t>
   </si>
   <si>
     <t>手机已注册</t>
@@ -43,7 +43,7 @@
     <t>yoga2</t>
   </si>
   <si>
-    <t>y1234568</t>
+    <t>y12345</t>
   </si>
 </sst>
 </file>
@@ -992,7 +992,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1026,7 +1026,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>13292679672</v>
+        <v>17274810086</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1043,7 +1043,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>13292679672</v>
+        <v>17274810086</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>

--- a/framework/data/signup.xlsx
+++ b/framework/data/signup.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>序号</t>
   </si>
@@ -31,19 +31,61 @@
     <t>预期断言结果</t>
   </si>
   <si>
-    <t>yoga</t>
+    <t>Register_abnormal001</t>
+  </si>
+  <si>
+    <t>yogachuan</t>
   </si>
   <si>
     <t>y123456</t>
   </si>
   <si>
-    <t>手机已注册</t>
-  </si>
-  <si>
-    <t>yoga2</t>
-  </si>
-  <si>
-    <t>y12345</t>
+    <t>不符合要求</t>
+  </si>
+  <si>
+    <t>Register_abnormal002</t>
+  </si>
+  <si>
+    <t>y123456789yyyyy</t>
+  </si>
+  <si>
+    <t>Register_abnormal003</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>Register_abnormal004</t>
+  </si>
+  <si>
+    <t>abcdefg</t>
+  </si>
+  <si>
+    <t>Register_abnormal005</t>
+  </si>
+  <si>
+    <t>，，，，，，，，</t>
+  </si>
+  <si>
+    <t>。。。。。。。。</t>
+  </si>
+  <si>
+    <t>、、、、、、、、</t>
+  </si>
+  <si>
+    <t>；；；；；；；；</t>
+  </si>
+  <si>
+    <t>Register_abnormal006</t>
+  </si>
+  <si>
+    <t>y123 456789</t>
+  </si>
+  <si>
+    <t>Register_abnormal007</t>
+  </si>
+  <si>
+    <t>y12345678哈</t>
   </si>
 </sst>
 </file>
@@ -65,6 +107,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -76,13 +125,6 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -539,13 +581,13 @@
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,16 +644,16 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,7 +671,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,16 +686,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,8 +708,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -989,13 +1037,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="17.3583333333333" customWidth="1"/>
     <col min="5" max="5" width="16.1083333333333" customWidth="1"/>
@@ -1019,37 +1067,167 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>17274810086</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="1">
+        <v>17810200310</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>17810200310</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>17274810086</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>17810200310</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>17810200310</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>17810200310</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>17810200310</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>17810200310</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>17810200310</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>17810200310</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>17810200310</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/framework/data/signup.xlsx
+++ b/framework/data/signup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24480" windowHeight="11780"/>
+    <workbookView windowWidth="17920" windowHeight="11780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>序号</t>
   </si>
   <si>
+    <t>用例说明</t>
+  </si>
+  <si>
     <t>用户名</t>
   </si>
   <si>
@@ -34,6 +37,9 @@
     <t>Register_abnormal001</t>
   </si>
   <si>
+    <t>密码少于8位</t>
+  </si>
+  <si>
     <t>yogachuan</t>
   </si>
   <si>
@@ -46,24 +52,36 @@
     <t>Register_abnormal002</t>
   </si>
   <si>
+    <t>密码大于14位</t>
+  </si>
+  <si>
     <t>y123456789yyyyy</t>
   </si>
   <si>
     <t>Register_abnormal003</t>
   </si>
   <si>
+    <t>密码纯数字</t>
+  </si>
+  <si>
     <t>123456789</t>
   </si>
   <si>
     <t>Register_abnormal004</t>
   </si>
   <si>
+    <t>密码纯字母</t>
+  </si>
+  <si>
     <t>abcdefg</t>
   </si>
   <si>
     <t>Register_abnormal005</t>
   </si>
   <si>
+    <t>密码纯符号</t>
+  </si>
+  <si>
     <t>，，，，，，，，</t>
   </si>
   <si>
@@ -79,10 +97,16 @@
     <t>Register_abnormal006</t>
   </si>
   <si>
+    <t>密码带空格</t>
+  </si>
+  <si>
     <t>y123 456789</t>
   </si>
   <si>
     <t>Register_abnormal007</t>
+  </si>
+  <si>
+    <t>密码带中文</t>
   </si>
   <si>
     <t>y12345678哈</t>
@@ -93,9 +117,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -114,11 +138,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,13 +183,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -153,30 +191,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,15 +209,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,44 +270,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,13 +291,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,169 +411,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,6 +482,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,25 +527,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -544,16 +568,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -563,148 +587,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,19 +1061,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="17.3583333333333" customWidth="1"/>
-    <col min="5" max="5" width="16.1083333333333" customWidth="1"/>
+    <col min="1" max="1" width="16.1083333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.3583333333333" customWidth="1"/>
+    <col min="6" max="6" width="16.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1065,169 +1090,208 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
         <v>17810200310</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="1">
+        <v>17810200310</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
         <v>17810200310</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D5" s="1">
+        <v>17810200310</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1">
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
         <v>17810200310</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D7" s="1">
+        <v>17810200310</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
         <v>17810200310</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D9" s="1">
+        <v>17810200310</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
         <v>17810200310</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="D11" s="1">
         <v>17810200310</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>17810200310</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>17810200310</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
-        <v>17810200310</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1">
-        <v>17810200310</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
